--- a/monitoring/pluto_test.xlsx
+++ b/monitoring/pluto_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28725" windowHeight="8040"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28725" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7753" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7753" uniqueCount="66">
   <si>
     <t>제목</t>
   </si>
@@ -225,6 +225,14 @@
     <t>B120214099_D1_995530</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>CJ ENM 리더필름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mcountdown_2_(ep.728)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -326,10 +334,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -621,7 +629,7 @@
   <dimension ref="A1:T674"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -631,67 +639,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5" t="s">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5" t="s">
+      <c r="N1" s="6"/>
+      <c r="O1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5" t="s">
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5" t="s">
+      <c r="R1" s="6"/>
+      <c r="S1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="5"/>
+      <c r="T1" s="6"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
       <c r="J2" s="8"/>
       <c r="K2" s="1" t="s">
         <v>15</v>
@@ -776,7 +784,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>63</v>
@@ -28226,7 +28234,7 @@
     </row>
     <row r="503" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="B503" s="1" t="s">
         <v>18</v>
@@ -37686,12 +37694,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:T1"/>
@@ -37701,8 +37703,15 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>